--- a/ResultadoEleicoesDistritos/SANTARÉM_SARDOAL.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_SARDOAL.xlsx
@@ -597,61 +597,61 @@
         <v>946</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T2" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>653</v>
+        <v>574</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
